--- a/excel/TC06_GiveSuggestion.xlsx
+++ b/excel/TC06_GiveSuggestion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\IT496 Project IN Information Technology (AJ.SAYAN)\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\IT496 Project IN Information Technology (AJ.SAYAN)\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F59980E-3F1C-4B82-8ECD-E32B42F9E5EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225D5D8-0B88-447E-8D19-E0945CABD6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{02CACE61-8A48-4707-AED0-8E7ADDC3B807}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{02CACE61-8A48-4707-AED0-8E7ADDC3B807}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="2" r:id="rId1"/>
@@ -22,17 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="91">
   <si>
     <t>TC Desc</t>
   </si>
@@ -109,9 +104,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>เข้าสู่ระบบสำเร็จ</t>
-  </si>
-  <si>
     <t>Enter username in field</t>
   </si>
   <si>
@@ -169,9 +161,6 @@
     <t>Click Tap Coordinates</t>
   </si>
   <si>
-    <t>tapByCoordinates</t>
-  </si>
-  <si>
     <t>stlpapp.finalproject.app.com.appstlp:id/text02</t>
   </si>
   <si>
@@ -184,9 +173,6 @@
     <t>0.8,0.2,0.5</t>
   </si>
   <si>
-    <t>539,1028</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter Fact </t>
   </si>
   <si>
@@ -199,18 +185,6 @@
     <t>Enter Opinion Status</t>
   </si>
   <si>
-    <t>535,785</t>
-  </si>
-  <si>
-    <t>539,1001</t>
-  </si>
-  <si>
-    <t>530,1276</t>
-  </si>
-  <si>
-    <t>508,1509</t>
-  </si>
-  <si>
     <t>vFact</t>
   </si>
   <si>
@@ -226,73 +200,106 @@
     <t>staffstlp01</t>
   </si>
   <si>
-    <t>TC07</t>
-  </si>
-  <si>
-    <t>530,1637</t>
-  </si>
-  <si>
     <t>Click Consider Button</t>
   </si>
   <si>
-    <t>vConfirmProcess</t>
-  </si>
-  <si>
     <t>fact</t>
   </si>
   <si>
     <t>rules</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>fact father/mother</t>
+  </si>
+  <si>
+    <t>ข้อเท็จจริงของบิดามารดาคือ</t>
+  </si>
+  <si>
+    <t>ข้อ</t>
+  </si>
+  <si>
+    <t>ข้อเท็จจริงคือ</t>
+  </si>
+  <si>
+    <t>ผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมาย</t>
+  </si>
+  <si>
+    <t>คำแนะนำของส่วนผมคิดว่า</t>
+  </si>
+  <si>
+    <t>ข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือ</t>
+  </si>
+  <si>
+    <t>ผม</t>
+  </si>
+  <si>
+    <t>ผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมาย</t>
+  </si>
+  <si>
+    <t>คำ</t>
+  </si>
+  <si>
+    <t>คำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำ</t>
+  </si>
+  <si>
+    <t>tapByCoordinates_Confirm</t>
+  </si>
+  <si>
+    <t>vProblem</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>กดเพื่อดูรายละเอียด</t>
+  </si>
+  <si>
+    <t>VerticalSwipe</t>
+  </si>
+  <si>
+    <t>vVerticalSwipe</t>
+  </si>
+  <si>
+    <t>edit_text_class</t>
+  </si>
+  <si>
+    <t>android.widget.EditText</t>
+  </si>
+  <si>
+    <t>click_class</t>
+  </si>
+  <si>
+    <t>android.widget.Button</t>
+  </si>
+  <si>
+    <t>Confirm Consider Button</t>
+  </si>
+  <si>
     <t>android:id/button1</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>confirmProcess</t>
-  </si>
-  <si>
-    <t>fact father/mother</t>
-  </si>
-  <si>
-    <t>ข้อเท็จจริงของบิดามารดาคือ</t>
-  </si>
-  <si>
-    <t>ข้อ</t>
-  </si>
-  <si>
-    <t>๒๔๑๒๓๓()ฉ%^&amp;&amp;#!@0!@#</t>
-  </si>
-  <si>
-    <t>ข้อเท็จจริงคือ</t>
-  </si>
-  <si>
-    <t>ผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมาย</t>
-  </si>
-  <si>
-    <t>คำแนะนำของส่วนผมคิดว่า</t>
-  </si>
-  <si>
-    <t>“กรุณากรอกข้อมูลให้ถูกต้อง”</t>
-  </si>
-  <si>
-    <t>ข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือข้อเท็จจริงของบิดามารดาคือ</t>
-  </si>
-  <si>
-    <t>ผม</t>
-  </si>
-  <si>
-    <t>ผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมายผมคิดว่าในส่วนนี้ความคิดเห็นทางกฎหมาย</t>
-  </si>
-  <si>
-    <t>คำ</t>
-  </si>
-  <si>
-    <t>คำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำของส่วนผมคิดว่าคำแนะนำ</t>
-  </si>
-  <si>
-    <t>edittext_tapByCoordinates</t>
+    <t>เสร็จสิ้นการพิจารณา</t>
+  </si>
+  <si>
+    <t>ข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือข้อเท็จจริงคือ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูลให้ถูกต้อง ตัวอักษรต้องมีความยาวระหว่าง 5-200 ตัวอักษร</t>
+  </si>
+  <si>
+    <t>กรุณากรอกข้อมูล</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -456,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,9 +487,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -526,6 +530,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -873,15 +901,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="1"/>
-    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="15.625" style="1"/>
+    <col min="1" max="2" width="15.59765625" style="1"/>
+    <col min="3" max="3" width="23.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="15.59765625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
@@ -909,16 +937,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E2" s="6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>17</v>
@@ -932,71 +960,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6FD072-C603-4B26-9BE8-601BD800D157}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="27" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="52.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="15.75" style="1"/>
+    <col min="8" max="16384" width="15.69921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>19</v>
@@ -1008,22 +1036,22 @@
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>30</v>
+      <c r="D3" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>29</v>
+      <c r="F3" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1032,25 +1060,25 @@
     </row>
     <row r="4" spans="1:10" ht="27" customHeight="1">
       <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>26</v>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>33</v>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1058,25 +1086,25 @@
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1">
       <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>27</v>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>34</v>
+      <c r="F5" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1084,22 +1112,22 @@
     </row>
     <row r="6" spans="1:10" ht="27" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>28</v>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>35</v>
+      <c r="F6" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1108,22 +1136,22 @@
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>43</v>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>46</v>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1132,22 +1160,22 @@
     </row>
     <row r="8" spans="1:10" ht="24.6" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>44</v>
+      <c r="D8" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1156,22 +1184,22 @@
     </row>
     <row r="9" spans="1:10" ht="24.6" customHeight="1">
       <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>47</v>
+      <c r="D9" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1180,22 +1208,22 @@
     </row>
     <row r="10" spans="1:10" ht="24.6" customHeight="1">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>47</v>
+      <c r="D10" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1204,22 +1232,22 @@
     </row>
     <row r="11" spans="1:10" ht="27" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>47</v>
+      <c r="D11" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1228,25 +1256,25 @@
     </row>
     <row r="12" spans="1:10" ht="27" customHeight="1">
       <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>51</v>
+      <c r="D12" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>55</v>
+        <v>78</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1254,25 +1282,25 @@
     </row>
     <row r="13" spans="1:10" ht="27" customHeight="1">
       <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>52</v>
+      <c r="D13" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>56</v>
+        <v>78</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1280,25 +1308,25 @@
     </row>
     <row r="14" spans="1:10" ht="27" customHeight="1">
       <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>13</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>53</v>
+      <c r="D14" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>57</v>
+        <v>78</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1306,25 +1334,25 @@
     </row>
     <row r="15" spans="1:10" ht="27" customHeight="1">
       <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C15" s="2">
         <v>14</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>54</v>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>79</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1332,51 +1360,73 @@
     </row>
     <row r="16" spans="1:10" ht="27" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>15</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>66</v>
+      <c r="D16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="27" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>16</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>9</v>
+      <c r="D17" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="27" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1387,674 +1437,616 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D88CB84-7895-4465-A78B-6A22CB5104B1}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="12.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="72" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="34.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="1"/>
-    <col min="13" max="13" width="23.75" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="15.625" style="1"/>
+    <col min="4" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.59765625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="17" style="24" customWidth="1"/>
+    <col min="12" max="12" width="22.09765625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="15.59765625" style="1"/>
+    <col min="14" max="14" width="23.69921875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="15.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" customHeight="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" ht="24" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="24" customHeight="1">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="24" customHeight="1">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" ht="24" customHeight="1">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="19"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M5" s="19"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" ht="24" customHeight="1">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="19"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="24" customHeight="1">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="19"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" ht="24" customHeight="1">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="24" customHeight="1">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="21" t="s">
+      <c r="K9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="24" customHeight="1">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="K10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="24" customHeight="1">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" ht="24" customHeight="1">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="19"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" ht="24" customHeight="1">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="L13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="19"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" ht="24" customHeight="1">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="22" t="s">
+      <c r="B14" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" ht="24" customHeight="1">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="24" customHeight="1">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" ht="24" customHeight="1">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" ht="24" customHeight="1">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="24" customHeight="1">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" ht="24" customHeight="1">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" ht="24" customHeight="1">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="24" customHeight="1">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="24" customHeight="1">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" ht="24" customHeight="1">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="19"/>
+      <c r="G14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="19"/>
       <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="24" customHeight="1">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="24" customHeight="1">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="19"/>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="20"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="24" customHeight="1">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" s="20"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="24" customHeight="1">
-      <c r="A18" s="7">
-        <v>17</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="O14" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1" display="!@!@#$%^&amp;*)" xr:uid="{BBBC2591-3FB2-4822-AF2A-E925B8235CF5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>